--- a/public/PoaMentalHealthToConsent.xlsx
+++ b/public/PoaMentalHealthToConsent.xlsx
@@ -50,7 +50,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-25T00:45:51-05:00</t>
+    <t>2022-10-31T00:13:59-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
